--- a/red neuronal con solo hidrogeno/Log of experiments.xlsx
+++ b/red neuronal con solo hidrogeno/Log of experiments.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intel-my.sharepoint.com/personal/nicolas_villalobos_arias_intel_com/Documents/Documents/Monka/Tesis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nvillalo\OneDrive - Intel Corporation\Documents\Monka\Tesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="370" documentId="8_{25493948-4E9A-4792-B899-11AD2A2E05AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C855C6F0-C6C9-47E4-963B-4BD6CC7AD8CD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F1CA82-9C58-4D0B-B2AD-79033BFEC448}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4710" yWindow="-16320" windowWidth="38640" windowHeight="15840" activeTab="4" xr2:uid="{3401F874-E920-49A7-9482-E32DC0DF0BE8}"/>
+    <workbookView xWindow="-4710" yWindow="-16320" windowWidth="38640" windowHeight="15840" tabRatio="847" firstSheet="2" activeTab="2" xr2:uid="{3401F874-E920-49A7-9482-E32DC0DF0BE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Model (H2)" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,14 @@
     <sheet name="Normal Model (H2) Images" sheetId="3" r:id="rId4"/>
     <sheet name="PCA Model (H2)" sheetId="6" r:id="rId5"/>
     <sheet name="PCA Model (H2) Images" sheetId="7" r:id="rId6"/>
+    <sheet name="PCF Model (H2)" sheetId="14" r:id="rId7"/>
+    <sheet name="PCF Model (H2) Images" sheetId="15" r:id="rId8"/>
+    <sheet name="DWT LVL 2 Model (H2)" sheetId="8" r:id="rId9"/>
+    <sheet name="DWT LVL 2 Model (H2) Images" sheetId="9" r:id="rId10"/>
+    <sheet name="DWT LVL 4 Model (H2)" sheetId="10" r:id="rId11"/>
+    <sheet name="DWT LVL 4 Model (H2) Images" sheetId="11" r:id="rId12"/>
+    <sheet name="DWT LVL 6 Model (H2)" sheetId="12" r:id="rId13"/>
+    <sheet name="DWT LVL 6 Model (H2) Images" sheetId="13" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="36">
   <si>
     <t>Model</t>
   </si>
@@ -133,6 +141,21 @@
   <si>
     <t>160 layers es un buen punto</t>
   </si>
+  <si>
+    <t>Softmax</t>
+  </si>
+  <si>
+    <t>Empeora con 0.5</t>
+  </si>
+  <si>
+    <t>Se mantiene igual con dropout pequeño</t>
+  </si>
+  <si>
+    <t>H=1, O=0.5</t>
+  </si>
+  <si>
+    <t>Mejora un poco con dropout pequeño</t>
+  </si>
 </sst>
 </file>
 
@@ -160,12 +183,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -180,11 +209,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1622,6 +1652,1302 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>43815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>501243</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCF83967-8C1A-41FC-B45B-3EA4BFE329FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2276475" y="26104215"/>
+          <a:ext cx="4320768" cy="3126105"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>240029</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>160240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1D2908A-6DFB-4F29-8EE3-6DDFA738E31E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6945629" y="26151840"/>
+          <a:ext cx="4208145" cy="2964400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>483009</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>89134</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CA87247-5DE8-4890-966A-C8F8F434E1C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2133600" y="3390900"/>
+          <a:ext cx="6883809" cy="3213334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>441091</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>3409</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BA5BEAE-DD00-44BB-8299-633E2AB0E52C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9334500" y="3486150"/>
+          <a:ext cx="6956191" cy="3213334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>405765</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>583974</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>146284</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D6F224F-BEC6-4AE8-8357-6A83EAB6727A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2234565" y="9525"/>
+          <a:ext cx="6883809" cy="3213334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>450616</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>136759</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EFB5A76-AE08-426D-82A5-675B60FAA9C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9344025" y="0"/>
+          <a:ext cx="6956191" cy="3213334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>380139</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>132949</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40C37403-D842-4395-92D7-6830A323F381}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9344025" y="0"/>
+          <a:ext cx="6885714" cy="3209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>479199</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>127234</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74C70902-ED7D-4A31-97F3-5973F5B03362}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2133600" y="6501765"/>
+          <a:ext cx="6879999" cy="3217144"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>249555</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>120015</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>496336</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>83419</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CD9740B-67D9-404C-A21D-90075E1E9180}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9393555" y="6454140"/>
+          <a:ext cx="6952381" cy="3220954"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>154305</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>488724</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>106279</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{741FD994-EA2F-4E8B-8467-B6DA61D25BE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="9745980"/>
+          <a:ext cx="6879999" cy="3209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>431566</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>79609</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC0904F8-DE27-4A1E-9821-B8F799A5577D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9324975" y="9896475"/>
+          <a:ext cx="6956191" cy="3213334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>370614</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>47224</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E207E835-4867-4EDF-AF52-C86B5AEA9EFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2019300" y="3421380"/>
+          <a:ext cx="6885714" cy="3209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>231541</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>153904</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB9E5699-2397-4429-8170-BB424A32E293}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9128760" y="3345180"/>
+          <a:ext cx="6952381" cy="3209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>239161</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>100564</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D180B19B-9B5F-4EA7-936F-0D26FA1FF5E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9136380" y="0"/>
+          <a:ext cx="6952381" cy="3209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>340134</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>100564</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C52AF93-82AB-43DC-B699-CE7393B95671}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1988820" y="0"/>
+          <a:ext cx="6885714" cy="3209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>416334</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>98659</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{627B0B19-D332-45CC-8B73-112C7B799E13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2066925" y="6477000"/>
+          <a:ext cx="6883809" cy="3213334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>231541</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>117709</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C04164C5-EB29-449A-A7C1-5D056E143CE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9124950" y="6496050"/>
+          <a:ext cx="6956191" cy="3213334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>271554</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>100564</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6111B6B2-2092-4373-AB45-000A7930A1AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1920240" y="0"/>
+          <a:ext cx="6885714" cy="3209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>300121</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>100564</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B618330A-8E81-4F5E-A581-08A90EB5F588}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9197340" y="0"/>
+          <a:ext cx="6952381" cy="3209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>195354</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>108184</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C265B627-276E-4A9E-9D15-3F55DDAEBE5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1844040" y="3299460"/>
+          <a:ext cx="6885714" cy="3209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>222016</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>163429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD9F7051-A2A9-4DA3-A09C-D434331315BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9115425" y="3314700"/>
+          <a:ext cx="6956191" cy="3182854"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>368709</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>136759</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE4465CB-8D5F-44C9-A65C-8C7F30CC72FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2019300" y="6515100"/>
+          <a:ext cx="6883809" cy="3213334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>222016</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>136759</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AEEC088-9ABF-4767-8FD1-11C174F13B25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9115425" y="6515100"/>
+          <a:ext cx="6956191" cy="3213334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>393474</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>100564</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3ACBCF4-7EAC-4F2F-8DF7-62A45393FF5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2042160" y="0"/>
+          <a:ext cx="6885714" cy="3209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>307741</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>100564</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ECDDD6F-7F8A-4707-881E-A399E01FC398}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9204960" y="0"/>
+          <a:ext cx="6952381" cy="3209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>469674</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>62464</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68EAE721-A537-4307-AB11-8419D0152D79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2118360" y="3436620"/>
+          <a:ext cx="6885714" cy="3209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>202966</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>11029</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7703C735-8D62-4F56-BB52-8002B4F603CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9105900" y="3352800"/>
+          <a:ext cx="6946666" cy="3173329"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>387759</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>174859</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCA44F7A-DC17-41C7-B77F-A71BFEEFDB02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2038350" y="6553200"/>
+          <a:ext cx="6883809" cy="3213334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>193441</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>136759</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E89C687F-3918-4AB7-8ED4-DE796AA37E42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9086850" y="6515100"/>
+          <a:ext cx="6956191" cy="3213334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2009,6 +3335,4095 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{650575C1-335C-4295-88AA-B8CC1639A96F}">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:C234"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q47" sqref="Q47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>3</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>4</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>5</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>6</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>7</v>
+      </c>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>8</v>
+      </c>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>9</v>
+      </c>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>10</v>
+      </c>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>11</v>
+      </c>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="1"/>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="1"/>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" s="1"/>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="1"/>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>12</v>
+      </c>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="1"/>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="1"/>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" s="1"/>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" s="1"/>
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" s="1"/>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" s="1"/>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" s="1"/>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" s="1"/>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" s="1"/>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" s="1"/>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" s="1"/>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" s="1"/>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" s="1"/>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" s="1"/>
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <v>13</v>
+      </c>
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="1"/>
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" s="1"/>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" s="1"/>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" s="1"/>
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" s="1"/>
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" s="1"/>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" s="1"/>
+      <c r="B224" s="1"/>
+      <c r="C224" s="1"/>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" s="1"/>
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" s="1"/>
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" s="1"/>
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="1"/>
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" s="1"/>
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
+      <c r="C232" s="1"/>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" s="1"/>
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" s="1"/>
+      <c r="B234" s="1"/>
+      <c r="C234" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A217:C234"/>
+    <mergeCell ref="A109:C126"/>
+    <mergeCell ref="A127:C144"/>
+    <mergeCell ref="A145:C162"/>
+    <mergeCell ref="A163:C180"/>
+    <mergeCell ref="A181:C198"/>
+    <mergeCell ref="A199:C216"/>
+    <mergeCell ref="A1:C18"/>
+    <mergeCell ref="A19:C36"/>
+    <mergeCell ref="A37:C54"/>
+    <mergeCell ref="A55:C72"/>
+    <mergeCell ref="A73:C90"/>
+    <mergeCell ref="A91:C108"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3E7823-5AB6-42FA-97C0-3B14D8BA4540}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="B1:M8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>160</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2">
+        <v>30</v>
+      </c>
+      <c r="I2">
+        <v>0.26350000000000001</v>
+      </c>
+      <c r="J2">
+        <v>0.33029999999999998</v>
+      </c>
+      <c r="K2">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="L2">
+        <v>0.88590000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0.1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>160</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3">
+        <v>30</v>
+      </c>
+      <c r="I3">
+        <v>0.27079999999999999</v>
+      </c>
+      <c r="J3">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="K3">
+        <v>0.90310000000000001</v>
+      </c>
+      <c r="L3">
+        <v>0.9153</v>
+      </c>
+      <c r="M3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0.1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>160</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="I4">
+        <v>0.43459999999999999</v>
+      </c>
+      <c r="J4">
+        <v>0.34360000000000002</v>
+      </c>
+      <c r="K4">
+        <v>0.84279999999999999</v>
+      </c>
+      <c r="L4">
+        <v>0.88590000000000002</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6584E479-55CA-4FA7-8F18-F1429F11C437}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:C234"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L62" sqref="L62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>3</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>4</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>5</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>6</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>7</v>
+      </c>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>8</v>
+      </c>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>9</v>
+      </c>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>10</v>
+      </c>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>11</v>
+      </c>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="1"/>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="1"/>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" s="1"/>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="1"/>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>12</v>
+      </c>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="1"/>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="1"/>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" s="1"/>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" s="1"/>
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" s="1"/>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" s="1"/>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" s="1"/>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" s="1"/>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" s="1"/>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" s="1"/>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" s="1"/>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" s="1"/>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" s="1"/>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" s="1"/>
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <v>13</v>
+      </c>
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="1"/>
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" s="1"/>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" s="1"/>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" s="1"/>
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" s="1"/>
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" s="1"/>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" s="1"/>
+      <c r="B224" s="1"/>
+      <c r="C224" s="1"/>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" s="1"/>
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" s="1"/>
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" s="1"/>
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="1"/>
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" s="1"/>
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
+      <c r="C232" s="1"/>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" s="1"/>
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" s="1"/>
+      <c r="B234" s="1"/>
+      <c r="C234" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A217:C234"/>
+    <mergeCell ref="A109:C126"/>
+    <mergeCell ref="A127:C144"/>
+    <mergeCell ref="A145:C162"/>
+    <mergeCell ref="A163:C180"/>
+    <mergeCell ref="A181:C198"/>
+    <mergeCell ref="A199:C216"/>
+    <mergeCell ref="A1:C18"/>
+    <mergeCell ref="A19:C36"/>
+    <mergeCell ref="A37:C54"/>
+    <mergeCell ref="A55:C72"/>
+    <mergeCell ref="A73:C90"/>
+    <mergeCell ref="A91:C108"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A3B716-E387-470D-976F-610B118F42E6}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="B1:M8"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>160</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2">
+        <v>30</v>
+      </c>
+      <c r="I2">
+        <v>0.28029999999999999</v>
+      </c>
+      <c r="J2">
+        <v>0.32079999999999997</v>
+      </c>
+      <c r="K2">
+        <v>0.90380000000000005</v>
+      </c>
+      <c r="L2">
+        <v>0.89200000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0.1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>160</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3">
+        <v>30</v>
+      </c>
+      <c r="I3">
+        <v>0.26850000000000002</v>
+      </c>
+      <c r="J3">
+        <v>0.25879999999999997</v>
+      </c>
+      <c r="K3">
+        <v>0.90380000000000005</v>
+      </c>
+      <c r="L3">
+        <v>0.90920000000000001</v>
+      </c>
+      <c r="M3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0.1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>160</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="I4">
+        <v>0.40360000000000001</v>
+      </c>
+      <c r="J4">
+        <v>0.35859999999999997</v>
+      </c>
+      <c r="K4">
+        <v>0.85660000000000003</v>
+      </c>
+      <c r="L4">
+        <v>0.86990000000000001</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2936EFD7-81A6-456F-B9AF-849D7C8394C7}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:C234"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P46" sqref="P46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>3</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>4</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>5</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>6</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>7</v>
+      </c>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>8</v>
+      </c>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>9</v>
+      </c>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>10</v>
+      </c>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>11</v>
+      </c>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="1"/>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="1"/>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" s="1"/>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="1"/>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>12</v>
+      </c>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="1"/>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="1"/>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" s="1"/>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" s="1"/>
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" s="1"/>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" s="1"/>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" s="1"/>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" s="1"/>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" s="1"/>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" s="1"/>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" s="1"/>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" s="1"/>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" s="1"/>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" s="1"/>
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <v>13</v>
+      </c>
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="1"/>
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" s="1"/>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" s="1"/>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" s="1"/>
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" s="1"/>
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" s="1"/>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" s="1"/>
+      <c r="B224" s="1"/>
+      <c r="C224" s="1"/>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" s="1"/>
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" s="1"/>
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" s="1"/>
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="1"/>
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" s="1"/>
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
+      <c r="C232" s="1"/>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" s="1"/>
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" s="1"/>
+      <c r="B234" s="1"/>
+      <c r="C234" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A217:C234"/>
+    <mergeCell ref="A109:C126"/>
+    <mergeCell ref="A127:C144"/>
+    <mergeCell ref="A145:C162"/>
+    <mergeCell ref="A163:C180"/>
+    <mergeCell ref="A181:C198"/>
+    <mergeCell ref="A199:C216"/>
+    <mergeCell ref="A1:C18"/>
+    <mergeCell ref="A19:C36"/>
+    <mergeCell ref="A37:C54"/>
+    <mergeCell ref="A55:C72"/>
+    <mergeCell ref="A73:C90"/>
+    <mergeCell ref="A91:C108"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81BF9840-4370-4182-B7A7-C71018A36314}">
   <sheetPr>
@@ -2131,8 +7546,8 @@
   </sheetPr>
   <dimension ref="B1:M8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2201,7 +7616,7 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="H2">
         <v>20</v>
@@ -2236,7 +7651,7 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="H3">
         <v>20</v>
@@ -2271,7 +7686,7 @@
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="H4">
         <v>30</v>
@@ -2292,38 +7707,38 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5">
+    <row r="5" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>0.1</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>160</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5">
+      <c r="G5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="2">
         <v>30</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>0.34549999999999997</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <v>0.33289999999999997</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="2">
         <v>0.88249999999999995</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
         <v>0.89329999999999998</v>
       </c>
     </row>
@@ -2344,7 +7759,7 @@
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="H6">
         <v>100</v>
@@ -2382,7 +7797,7 @@
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="H7">
         <v>30</v>
@@ -2420,7 +7835,7 @@
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>1000</v>
@@ -2441,6 +7856,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2451,8 +7867,8 @@
   </sheetPr>
   <dimension ref="A1:C234"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="G35" workbookViewId="0">
+      <selection activeCell="D5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3655,11 +9071,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:C18"/>
-    <mergeCell ref="A19:C36"/>
-    <mergeCell ref="A37:C54"/>
-    <mergeCell ref="A55:C72"/>
-    <mergeCell ref="A73:C90"/>
     <mergeCell ref="A181:C198"/>
     <mergeCell ref="A199:C216"/>
     <mergeCell ref="A217:C234"/>
@@ -3668,9 +9079,15 @@
     <mergeCell ref="A127:C144"/>
     <mergeCell ref="A145:C162"/>
     <mergeCell ref="A163:C180"/>
+    <mergeCell ref="A1:C18"/>
+    <mergeCell ref="A19:C36"/>
+    <mergeCell ref="A37:C54"/>
+    <mergeCell ref="A55:C72"/>
+    <mergeCell ref="A73:C90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3679,10 +9096,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:M9"/>
+  <dimension ref="B1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3752,7 +9169,7 @@
         <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="H2">
         <v>30</v>
@@ -3770,41 +9187,41 @@
         <v>0.98280000000000001</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3">
+    <row r="3" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>0.1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>160</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3">
+      <c r="G3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="2">
         <v>30</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>4.87E-2</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="2">
         <v>0.1421</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="2">
         <v>0.98799999999999999</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="2">
         <v>0.98280000000000001</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3825,7 +9242,7 @@
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="H4">
         <v>30</v>
@@ -3863,7 +9280,7 @@
         <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="H5">
         <v>30</v>
@@ -3901,7 +9318,7 @@
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="H6">
         <v>30</v>
@@ -3939,7 +9356,7 @@
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="H7">
         <v>30</v>
@@ -3977,7 +9394,7 @@
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>30</v>
@@ -4012,7 +9429,7 @@
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="H9">
         <v>30</v>
@@ -4033,8 +9450,44 @@
         <v>30</v>
       </c>
     </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>0.1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>180</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+      <c r="I10">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="J10">
+        <v>0.20069999999999999</v>
+      </c>
+      <c r="K10">
+        <v>0.99260000000000004</v>
+      </c>
+      <c r="L10">
+        <v>0.98529999999999995</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4045,8 +9498,1503 @@
   </sheetPr>
   <dimension ref="A1:C234"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="N131" sqref="N131"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="T154" sqref="T154"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>3</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>4</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>5</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>6</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>7</v>
+      </c>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>8</v>
+      </c>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>9</v>
+      </c>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>10</v>
+      </c>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>11</v>
+      </c>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="1"/>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="1"/>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" s="1"/>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="1"/>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>12</v>
+      </c>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="1"/>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="1"/>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" s="1"/>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" s="1"/>
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" s="1"/>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" s="1"/>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" s="1"/>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" s="1"/>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" s="1"/>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" s="1"/>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" s="1"/>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" s="1"/>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" s="1"/>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" s="1"/>
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <v>13</v>
+      </c>
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="1"/>
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" s="1"/>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" s="1"/>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" s="1"/>
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" s="1"/>
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" s="1"/>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" s="1"/>
+      <c r="B224" s="1"/>
+      <c r="C224" s="1"/>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" s="1"/>
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" s="1"/>
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" s="1"/>
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="1"/>
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" s="1"/>
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
+      <c r="C232" s="1"/>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" s="1"/>
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" s="1"/>
+      <c r="B234" s="1"/>
+      <c r="C234" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A91:C108"/>
+    <mergeCell ref="A1:C18"/>
+    <mergeCell ref="A19:C36"/>
+    <mergeCell ref="A37:C54"/>
+    <mergeCell ref="A55:C72"/>
+    <mergeCell ref="A73:C90"/>
+    <mergeCell ref="A217:C234"/>
+    <mergeCell ref="A109:C126"/>
+    <mergeCell ref="A127:C144"/>
+    <mergeCell ref="A145:C162"/>
+    <mergeCell ref="A163:C180"/>
+    <mergeCell ref="A181:C198"/>
+    <mergeCell ref="A199:C216"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71065C6E-ED56-4E25-8516-4BF650422733}">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="B1:M8"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>160</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2">
+        <v>30</v>
+      </c>
+      <c r="I2">
+        <v>0.2858</v>
+      </c>
+      <c r="J2">
+        <v>0.31719999999999998</v>
+      </c>
+      <c r="K2">
+        <v>0.89680000000000004</v>
+      </c>
+      <c r="L2">
+        <v>0.89939999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0.1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>160</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3">
+        <v>30</v>
+      </c>
+      <c r="I3">
+        <v>0.3024</v>
+      </c>
+      <c r="J3">
+        <v>0.27860000000000001</v>
+      </c>
+      <c r="K3">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="L3">
+        <v>0.90669999999999995</v>
+      </c>
+      <c r="M3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0.1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>160</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="I4">
+        <v>0.56040000000000001</v>
+      </c>
+      <c r="J4">
+        <v>0.46339999999999998</v>
+      </c>
+      <c r="K4">
+        <v>0.79430000000000001</v>
+      </c>
+      <c r="L4">
+        <v>0.85029999999999994</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0.1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>160</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
+      <c r="I5">
+        <v>0.29120000000000001</v>
+      </c>
+      <c r="J5">
+        <v>0.3044</v>
+      </c>
+      <c r="K5">
+        <v>0.89780000000000004</v>
+      </c>
+      <c r="L5">
+        <v>0.89939999999999998</v>
+      </c>
+      <c r="M5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0.1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>160</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="I6">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="J6">
+        <v>0.36840000000000001</v>
+      </c>
+      <c r="K6">
+        <v>0.87980000000000003</v>
+      </c>
+      <c r="L6">
+        <v>0.8589</v>
+      </c>
+      <c r="M6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB4C0B4-64A5-4B77-8C97-1B11CD2C1943}">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:C234"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q62" sqref="Q62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5264,6 +12212,205 @@
     <mergeCell ref="A91:C108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBADF19B-8D7B-493C-BC06-BF0DD4E30185}">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="B1:M8"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>160</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2">
+        <v>30</v>
+      </c>
+      <c r="I2">
+        <v>0.28560000000000002</v>
+      </c>
+      <c r="J2">
+        <v>0.29730000000000001</v>
+      </c>
+      <c r="K2">
+        <v>0.89949999999999997</v>
+      </c>
+      <c r="L2">
+        <v>0.90059999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0.1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>160</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3">
+        <v>30</v>
+      </c>
+      <c r="I3">
+        <v>0.28050000000000003</v>
+      </c>
+      <c r="J3">
+        <v>0.26440000000000002</v>
+      </c>
+      <c r="K3">
+        <v>0.90229999999999999</v>
+      </c>
+      <c r="L3">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="M3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0.1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>160</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="I4">
+        <v>0.48070000000000002</v>
+      </c>
+      <c r="J4">
+        <v>0.42520000000000002</v>
+      </c>
+      <c r="K4">
+        <v>0.82450000000000001</v>
+      </c>
+      <c r="L4">
+        <v>0.85150000000000003</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>